--- a/DOCS/dictionnaire.xlsx
+++ b/DOCS/dictionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>libelle</t>
   </si>
@@ -33,9 +33,6 @@
     <t>prenom</t>
   </si>
   <si>
-    <t>numero de matricule</t>
-  </si>
-  <si>
     <t>demande</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>numero et intitule de l operation</t>
   </si>
   <si>
-    <t>nature de l intervention</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>duree</t>
   </si>
   <si>
-    <t>operation</t>
-  </si>
-  <si>
     <t>type de maintenance</t>
   </si>
   <si>
@@ -87,22 +78,7 @@
     <t>observations</t>
   </si>
   <si>
-    <t>descriptif exact de l intervention a faire (genre ou sa se situe quelle actions a faire exactement) ou correspond a une demande par celui qui signale(genre sa fuit)</t>
-  </si>
-  <si>
-    <t>correpond au lieu, des fichiers joints, ou infos genre le code de l entree d un immeuble u d alarme…?</t>
-  </si>
-  <si>
-    <t>libelle a priori</t>
-  </si>
-  <si>
     <t>3 libelle, Améliorative, Préventive, Corrective</t>
-  </si>
-  <si>
-    <t>en cas d amelioration faut il changer tout les libelle de cette categorie par installation(par exemple)?</t>
-  </si>
-  <si>
-    <t>libelle ou demande initiale ou ce qui a été fait pendant (si c est le cas cela correspond a d autre sasies de cette fiche).</t>
   </si>
   <si>
     <t>description intervention:
@@ -110,7 +86,154 @@
 -travaux non realiser(raisons)</t>
   </si>
   <si>
-    <t>infos genre"une itv sera necessaire pour changer le joint plus tard" ?</t>
+    <t>Numero Beneficiaire</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>identification/notif</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>numero d offre</t>
+  </si>
+  <si>
+    <t>date fin</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date debut stagiaire</t>
+  </si>
+  <si>
+    <t>date debut offre</t>
+  </si>
+  <si>
+    <t>date du jour</t>
+  </si>
+  <si>
+    <t>nom du demandeur</t>
+  </si>
+  <si>
+    <t>defaut nom connecter</t>
+  </si>
+  <si>
+    <t>numero tel</t>
+  </si>
+  <si>
+    <t>teldemandeur</t>
+  </si>
+  <si>
+    <t>lieu ITV</t>
+  </si>
+  <si>
+    <t>environement</t>
+  </si>
+  <si>
+    <t>cabine/centre</t>
+  </si>
+  <si>
+    <t>lieu d intervention: cabine/maquette/bureau centre</t>
+  </si>
+  <si>
+    <t>bloc competences</t>
+  </si>
+  <si>
+    <t>mise e situation metier(MESM)</t>
+  </si>
+  <si>
+    <t>ammenagement interieur/electricite/sanitaire/revetement interieur</t>
+  </si>
+  <si>
+    <t>voir synoptique</t>
+  </si>
+  <si>
+    <t>schema d'operation</t>
+  </si>
+  <si>
+    <t>schema liée à l'operation choisie</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>descriptif de l'intervention precision des différentes activites à realiser</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>par activité qui divise l'operation</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>operation realisee( remplacement, reglage, …)</t>
+  </si>
+  <si>
+    <t>ne pas bloquer ces choix en cas d amelioratiton en vue de formation</t>
+  </si>
+  <si>
+    <t>tout les MESM</t>
+  </si>
+  <si>
+    <t>2 text_area</t>
+  </si>
+  <si>
+    <t>lie au descriptions</t>
+  </si>
+  <si>
+    <t>tex_area</t>
+  </si>
+  <si>
+    <t>liste differente selon si certif ou pendant formation case autre avec zone de saisie</t>
+  </si>
+  <si>
+    <t>outillage</t>
+  </si>
+  <si>
+    <t>difference certfi forma</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>label: oui/non</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>avis formateur/jury</t>
+  </si>
+  <si>
+    <t>etat demande</t>
+  </si>
+  <si>
+    <t>statue de la demande</t>
+  </si>
+  <si>
+    <t>assigner/en cours/terminer</t>
   </si>
 </sst>
 </file>
@@ -150,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -158,26 +281,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,166 +779,509 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="146.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="C28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+      <c r="C29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="C31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="C33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="C22:C25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/DOCS/dictionnaire.xlsx
+++ b/DOCS/dictionnaire.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
   <si>
     <t>date de la demande</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>outillage</t>
-  </si>
-  <si>
-    <t>oui</t>
   </si>
   <si>
     <t>validation</t>
@@ -269,6 +266,12 @@
   </si>
   <si>
     <t>date début offre</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>OUI</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +316,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -585,24 +594,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,9 +664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,9 +679,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,51 +694,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,405 +1058,457 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="13"/>
+    <col min="1" max="1" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>63</v>
+      <c r="F1" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
+      <c r="E2" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+      <c r="B3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49"/>
+      <c r="B8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="E8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49"/>
+      <c r="B9" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>23</v>
-      </c>
       <c r="B11" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26" t="s">
+      <c r="F11" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
+      <c r="B12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+      <c r="B14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>62</v>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="22"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="26" t="s">
+      <c r="F15" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="D16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="49"/>
+      <c r="B17" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="49"/>
+      <c r="B18" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="C18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="28" t="s">
+      <c r="E18" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="49"/>
+      <c r="B20" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="49"/>
+      <c r="B21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
+      <c r="B22" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="49"/>
+      <c r="B23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="49"/>
+      <c r="B24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="52"/>
+      <c r="B25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="27" t="s">
+      <c r="E27" s="39"/>
+      <c r="F27" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
-      <c r="B25" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="F28" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
       <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
@@ -1463,189 +1517,213 @@
         <v>14</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="F29" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
       <c r="B30" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="F30" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
       <c r="B31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
       <c r="B32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
       <c r="B33" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
       <c r="B34" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
       <c r="B35" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
+      <c r="F35" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
       <c r="B36" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="F36" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
       <c r="B37" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="31"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
       <c r="B39" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="48" t="s">
+      <c r="F39" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="46"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1666,7 +1744,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1678,7 +1756,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DOCS/dictionnaire.xlsx
+++ b/DOCS/dictionnaire.xlsx
@@ -728,6 +728,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,21 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -1104,7 +1104,7 @@
       <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="50" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -1112,7 +1112,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="25" t="s">
         <v>77</v>
       </c>
@@ -1120,13 +1120,13 @@
       <c r="D3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="25" t="s">
         <v>78</v>
       </c>
@@ -1134,13 +1134,13 @@
       <c r="D4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="25" t="s">
         <v>19</v>
       </c>
@@ -1150,13 +1150,13 @@
       <c r="D5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="25" t="s">
         <v>79</v>
       </c>
@@ -1170,7 +1170,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1184,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="25" t="s">
         <v>80</v>
       </c>
@@ -1200,7 +1200,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="25" t="s">
         <v>81</v>
       </c>
@@ -1214,7 +1214,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1228,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="45" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1242,7 +1242,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="25" t="s">
         <v>63</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="25" t="s">
         <v>25</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="30" t="s">
         <v>23</v>
       </c>
@@ -1280,7 +1280,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -1298,7 +1298,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="25" t="s">
         <v>65</v>
       </c>
@@ -1314,7 +1314,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="25" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="25" t="s">
         <v>67</v>
       </c>
@@ -1348,7 +1348,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="25" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1366,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="25" t="s">
         <v>68</v>
       </c>
@@ -1384,7 +1384,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="25" t="s">
         <v>30</v>
       </c>
@@ -1402,7 +1402,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="25" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +1420,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="25" t="s">
         <v>32</v>
       </c>
@@ -1436,7 +1436,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="25" t="s">
         <v>39</v>
       </c>
@@ -1452,7 +1452,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="30" t="s">
         <v>38</v>
       </c>
@@ -1469,10 +1469,10 @@
       <c r="A26" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="34"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -1536,7 +1536,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="6" t="s">
         <v>15</v>
       </c>
@@ -1590,7 +1590,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="6" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="7" t="s">
         <v>44</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="7" t="s">
         <v>45</v>
       </c>

--- a/DOCS/dictionnaire.xlsx
+++ b/DOCS/dictionnaire.xlsx
@@ -598,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,9 +680,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1058,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,15 +1083,15 @@
       <c r="D1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -1104,7 +1101,7 @@
       <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -1112,7 +1109,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="25" t="s">
         <v>77</v>
       </c>
@@ -1120,13 +1117,13 @@
       <c r="D3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="25" t="s">
         <v>78</v>
       </c>
@@ -1134,13 +1131,13 @@
       <c r="D4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="25" t="s">
         <v>19</v>
       </c>
@@ -1150,13 +1147,13 @@
       <c r="D5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="25" t="s">
         <v>79</v>
       </c>
@@ -1170,7 +1167,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1181,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="25" t="s">
         <v>80</v>
       </c>
@@ -1200,7 +1197,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="25" t="s">
         <v>81</v>
       </c>
@@ -1214,21 +1211,21 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1242,7 +1239,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="25" t="s">
         <v>63</v>
       </c>
@@ -1254,7 +1251,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="25" t="s">
         <v>25</v>
       </c>
@@ -1266,21 +1263,21 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -1298,7 +1295,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="25" t="s">
         <v>65</v>
       </c>
@@ -1314,7 +1311,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="25" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1327,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="25" t="s">
         <v>67</v>
       </c>
@@ -1348,7 +1345,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="25" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1363,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="25" t="s">
         <v>68</v>
       </c>
@@ -1384,7 +1381,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="25" t="s">
         <v>30</v>
       </c>
@@ -1402,7 +1399,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="25" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +1417,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="25" t="s">
         <v>32</v>
       </c>
@@ -1436,7 +1433,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="25" t="s">
         <v>39</v>
       </c>
@@ -1452,44 +1449,44 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="28" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40" t="s">
+      <c r="E27" s="38"/>
+      <c r="F27" s="39" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1503,7 +1500,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="39" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1517,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="39" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1531,12 +1528,12 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="6" t="s">
         <v>15</v>
       </c>
@@ -1549,12 +1546,12 @@
       <c r="E31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1567,12 +1564,12 @@
       <c r="E32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="6" t="s">
         <v>4</v>
       </c>
@@ -1585,12 +1582,12 @@
       <c r="E33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="6" t="s">
         <v>5</v>
       </c>
@@ -1601,12 +1598,12 @@
       <c r="E34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="7" t="s">
         <v>44</v>
       </c>
@@ -1617,12 +1614,12 @@
         <v>13</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="7" t="s">
         <v>45</v>
       </c>
@@ -1633,12 +1630,12 @@
         <v>13</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="6" t="s">
         <v>36</v>
       </c>
@@ -1656,7 +1653,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
       </c>
@@ -1674,7 +1671,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="9" t="s">
         <v>6</v>
       </c>
@@ -1690,19 +1687,19 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="38" t="s">
         <v>53</v>
       </c>
       <c r="F40" s="5" t="s">

--- a/DOCS/dictionnaire.xlsx
+++ b/DOCS/dictionnaire.xlsx
@@ -598,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,9 +652,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -665,9 +662,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1055,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,415 +1077,415 @@
       <c r="D1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="23" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="23" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="23" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="23" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="28" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39" t="s">
+      <c r="E27" s="36"/>
+      <c r="F27" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="6" t="s">
         <v>34</v>
       </c>
@@ -1500,12 +1494,12 @@
         <v>14</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
@@ -1514,12 +1508,12 @@
         <v>14</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="6" t="s">
         <v>35</v>
       </c>
@@ -1528,12 +1522,12 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="6" t="s">
         <v>15</v>
       </c>
@@ -1546,12 +1540,12 @@
       <c r="E31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="6" t="s">
         <v>3</v>
       </c>
@@ -1564,12 +1558,12 @@
       <c r="E32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="6" t="s">
         <v>4</v>
       </c>
@@ -1582,12 +1576,12 @@
       <c r="E33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="6" t="s">
         <v>5</v>
       </c>
@@ -1598,12 +1592,12 @@
       <c r="E34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="7" t="s">
         <v>44</v>
       </c>
@@ -1614,12 +1608,12 @@
         <v>13</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="7" t="s">
         <v>45</v>
       </c>
@@ -1630,12 +1624,12 @@
         <v>13</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="6" t="s">
         <v>36</v>
       </c>
@@ -1653,7 +1647,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="6" t="s">
         <v>16</v>
       </c>
@@ -1671,7 +1665,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="9" t="s">
         <v>6</v>
       </c>
@@ -1687,19 +1681,19 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="E40" s="36" t="s">
         <v>53</v>
       </c>
       <c r="F40" s="5" t="s">

--- a/DOCS/dictionnaire.xlsx
+++ b/DOCS/dictionnaire.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
   <si>
     <t>date de la demande</t>
   </si>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1226,9 @@
         <v>24</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="21"/>
       <c r="F11" s="22" t="s">
         <v>83</v>
@@ -1238,7 +1240,9 @@
         <v>63</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="E12" s="25"/>
       <c r="F12" s="22" t="s">
         <v>83</v>
@@ -1250,7 +1254,9 @@
         <v>25</v>
       </c>
       <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
+      <c r="D13" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="25"/>
       <c r="F13" s="22" t="s">
         <v>83</v>
@@ -1264,7 +1270,9 @@
       <c r="C14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="29" t="s">
+        <v>7</v>
+      </c>
       <c r="E14" s="29"/>
       <c r="F14" s="22" t="s">
         <v>83</v>

--- a/DOCS/dictionnaire.xlsx
+++ b/DOCS/dictionnaire.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="223">
   <si>
     <t>date de la demande</t>
   </si>
@@ -272,13 +272,430 @@
   </si>
   <si>
     <t>OUI</t>
+  </si>
+  <si>
+    <t>Entités</t>
+  </si>
+  <si>
+    <t>nom attributs</t>
+  </si>
+  <si>
+    <t>code attribut</t>
+  </si>
+  <si>
+    <t>type attributs</t>
+  </si>
+  <si>
+    <t>utilisateurs</t>
+  </si>
+  <si>
+    <t>identifiant utilisateur</t>
+  </si>
+  <si>
+    <t>idUser</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>nom utilisateur</t>
+  </si>
+  <si>
+    <t>nomUser</t>
+  </si>
+  <si>
+    <t>prenom utilisateur</t>
+  </si>
+  <si>
+    <t>prenomUser</t>
+  </si>
+  <si>
+    <t>telephone utilisateur</t>
+  </si>
+  <si>
+    <t>telUser</t>
+  </si>
+  <si>
+    <t>email utilisateur</t>
+  </si>
+  <si>
+    <t>emailUser</t>
+  </si>
+  <si>
+    <t>mot de passe utilisateur</t>
+  </si>
+  <si>
+    <t>mdpUser</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>identifiant role</t>
+  </si>
+  <si>
+    <t>idRole</t>
+  </si>
+  <si>
+    <t>libelle role</t>
+  </si>
+  <si>
+    <t>libelleRole</t>
+  </si>
+  <si>
+    <t>formateurs</t>
+  </si>
+  <si>
+    <t>matricule formateur</t>
+  </si>
+  <si>
+    <t>matriculeFormateur</t>
+  </si>
+  <si>
+    <t>type de contrat</t>
+  </si>
+  <si>
+    <t>typeContrat</t>
+  </si>
+  <si>
+    <t>date de debut</t>
+  </si>
+  <si>
+    <t>dateDebutContrat</t>
+  </si>
+  <si>
+    <t>date de fin</t>
+  </si>
+  <si>
+    <t>dateFinContrat</t>
+  </si>
+  <si>
+    <t>stagiaires</t>
+  </si>
+  <si>
+    <t>date debut formation</t>
+  </si>
+  <si>
+    <t>dateDebutFormation</t>
+  </si>
+  <si>
+    <t>date fin formation</t>
+  </si>
+  <si>
+    <t>dateFinFormation</t>
+  </si>
+  <si>
+    <t>numero de beneficiaire</t>
+  </si>
+  <si>
+    <t>numeroBeneficiaire</t>
+  </si>
+  <si>
+    <t>offres</t>
+  </si>
+  <si>
+    <t>identifiant offre</t>
+  </si>
+  <si>
+    <t>idOffre</t>
+  </si>
+  <si>
+    <t>numero d'offre</t>
+  </si>
+  <si>
+    <t>numeroOffre</t>
+  </si>
+  <si>
+    <t>date de debut offre</t>
+  </si>
+  <si>
+    <t>dateDebutOffre</t>
+  </si>
+  <si>
+    <t>date de fin offre</t>
+  </si>
+  <si>
+    <t>dateFinOffre</t>
+  </si>
+  <si>
+    <t>fichesInterventions</t>
+  </si>
+  <si>
+    <t>identifiant fiche intervention</t>
+  </si>
+  <si>
+    <t>idFicheIntervention</t>
+  </si>
+  <si>
+    <t>dateDemande</t>
+  </si>
+  <si>
+    <t>description de la demande</t>
+  </si>
+  <si>
+    <t>descriptionDemande</t>
+  </si>
+  <si>
+    <t>statutDemande</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>lieux</t>
+  </si>
+  <si>
+    <t>identifiant lieu</t>
+  </si>
+  <si>
+    <t>idLieu</t>
+  </si>
+  <si>
+    <t>nom du lieu</t>
+  </si>
+  <si>
+    <t>nomLieu</t>
+  </si>
+  <si>
+    <t>environnements</t>
+  </si>
+  <si>
+    <t>identifiant environnement</t>
+  </si>
+  <si>
+    <t>idEnv</t>
+  </si>
+  <si>
+    <t>type d'environnement</t>
+  </si>
+  <si>
+    <t>typeEnv</t>
+  </si>
+  <si>
+    <t>operations</t>
+  </si>
+  <si>
+    <t>identifiant operation</t>
+  </si>
+  <si>
+    <t>idOperation</t>
+  </si>
+  <si>
+    <t>numero de l'operation</t>
+  </si>
+  <si>
+    <t>numeroOperation</t>
+  </si>
+  <si>
+    <t>intitule de l'operation</t>
+  </si>
+  <si>
+    <t>intituleOperation</t>
+  </si>
+  <si>
+    <t>schema de l'operation</t>
+  </si>
+  <si>
+    <t>schemaOperation</t>
+  </si>
+  <si>
+    <t>mesm</t>
+  </si>
+  <si>
+    <t>identifiant mesm</t>
+  </si>
+  <si>
+    <t>idMesm</t>
+  </si>
+  <si>
+    <t>numero mesm</t>
+  </si>
+  <si>
+    <t>numeroMesm</t>
+  </si>
+  <si>
+    <t>libelle mesm</t>
+  </si>
+  <si>
+    <t>libelleMesm</t>
+  </si>
+  <si>
+    <t>blocsCompetences</t>
+  </si>
+  <si>
+    <t>identifiant bloc competence</t>
+  </si>
+  <si>
+    <t>idBlocComp</t>
+  </si>
+  <si>
+    <t>numero bloc de competences</t>
+  </si>
+  <si>
+    <t>numeroBlocComp</t>
+  </si>
+  <si>
+    <t>libelle bloc de competences</t>
+  </si>
+  <si>
+    <t>libelleBlocComp</t>
+  </si>
+  <si>
+    <t>typesMaintenances</t>
+  </si>
+  <si>
+    <t>identifiant type maintenance</t>
+  </si>
+  <si>
+    <t>idTypeMaint</t>
+  </si>
+  <si>
+    <t>numero type maintenance</t>
+  </si>
+  <si>
+    <t>numeroTypeMaint</t>
+  </si>
+  <si>
+    <t>libelle type maintenance</t>
+  </si>
+  <si>
+    <t>libelleTypeMaint</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>identifiant cause intervention</t>
+  </si>
+  <si>
+    <t>idCause</t>
+  </si>
+  <si>
+    <t>numero cause intervention</t>
+  </si>
+  <si>
+    <t>numeroCause</t>
+  </si>
+  <si>
+    <t>libelle cause intervention</t>
+  </si>
+  <si>
+    <t>libelleCause</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+  <si>
+    <t>identifiant action</t>
+  </si>
+  <si>
+    <t>idAction</t>
+  </si>
+  <si>
+    <t>numero action</t>
+  </si>
+  <si>
+    <t>numeroAction</t>
+  </si>
+  <si>
+    <t>libelle action</t>
+  </si>
+  <si>
+    <t>libelleAction</t>
+  </si>
+  <si>
+    <t>materiaux</t>
+  </si>
+  <si>
+    <t>identifiant materiel</t>
+  </si>
+  <si>
+    <t>idMateriel</t>
+  </si>
+  <si>
+    <t>nom materiel</t>
+  </si>
+  <si>
+    <t>nomMateriel</t>
+  </si>
+  <si>
+    <t>nombre disponible</t>
+  </si>
+  <si>
+    <t>nbDispo</t>
+  </si>
+  <si>
+    <t>outils</t>
+  </si>
+  <si>
+    <t>identifiant outil</t>
+  </si>
+  <si>
+    <t>idOutil</t>
+  </si>
+  <si>
+    <t>nom outil</t>
+  </si>
+  <si>
+    <t>nomOutil</t>
+  </si>
+  <si>
+    <t>nombre outil</t>
+  </si>
+  <si>
+    <t>nbOutil</t>
+  </si>
+  <si>
+    <t>activites</t>
+  </si>
+  <si>
+    <t>identifiant activite</t>
+  </si>
+  <si>
+    <t>idActivite</t>
+  </si>
+  <si>
+    <t>date d'intervention</t>
+  </si>
+  <si>
+    <t>dateIntervention</t>
+  </si>
+  <si>
+    <t>date et heure de debut intervention</t>
+  </si>
+  <si>
+    <t>dateDebutItv</t>
+  </si>
+  <si>
+    <t>date et heure de fin intervention</t>
+  </si>
+  <si>
+    <t>dateFinItv</t>
+  </si>
+  <si>
+    <t>travaux realise</t>
+  </si>
+  <si>
+    <t>travauxRealises</t>
+  </si>
+  <si>
+    <t>travaux non realise</t>
+  </si>
+  <si>
+    <t>travauxNonRealises</t>
+  </si>
+  <si>
+    <t>demandeur</t>
+  </si>
+  <si>
+    <t>dureeItv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +719,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +772,122 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0099CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDD9C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -594,11 +1158,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,24 +1238,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -647,101 +1253,805 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,6 +2059,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF2DCDB"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFDDD9C4"/>
+      <color rgb="FFF2F2F2"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF99FFCC"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFCCCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1047,499 +2371,529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="G1" s="184"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="47" t="s">
+      <c r="C2" s="185"/>
+      <c r="D2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="23" t="s">
+      <c r="G2" s="186"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="22" t="s">
+      <c r="C3" s="187"/>
+      <c r="D3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="23" t="s">
+      <c r="G3" s="186"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="22" t="s">
+      <c r="C4" s="187"/>
+      <c r="D4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="23" t="s">
+      <c r="G4" s="186"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="22" t="s">
+      <c r="D5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="23" t="s">
+      <c r="G5" s="186"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="187"/>
+      <c r="D6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="23" t="s">
+      <c r="G6" s="186"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="187"/>
+      <c r="D7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="23" t="s">
+      <c r="G7" s="186"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="C8" s="187"/>
+      <c r="D8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="23" t="s">
+      <c r="G8" s="186"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="187"/>
+      <c r="D9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="27" t="s">
+      <c r="G9" s="186"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="188"/>
+      <c r="D10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="G10" s="186"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22" t="s">
+      <c r="C11" s="185"/>
+      <c r="D11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="23" t="s">
+      <c r="G11" s="186"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="22" t="s">
+      <c r="C12" s="187"/>
+      <c r="D12" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="23" t="s">
+      <c r="G12" s="186"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="22" t="s">
+      <c r="C13" s="187"/>
+      <c r="D13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="27" t="s">
+      <c r="G13" s="186"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="22" t="s">
+      <c r="D14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="G14" s="186"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22" t="s">
+      <c r="D15" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="23" t="s">
+      <c r="G15" s="186"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="22" t="s">
+      <c r="D16" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="23" t="s">
+      <c r="G16" s="186"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="23" t="s">
+      <c r="G17" s="186"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="23" t="s">
+      <c r="G18" s="186"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="23" t="s">
+      <c r="G19" s="186"/>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="23" t="s">
+      <c r="G20" s="186"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="23" t="s">
+      <c r="G21" s="186"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="25" t="s">
+      <c r="D22" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="23" t="s">
+      <c r="G22" s="186"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="23" t="s">
+      <c r="G23" s="186"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="27" t="s">
+      <c r="G24" s="186"/>
+    </row>
+    <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="26" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+      <c r="G25" s="186"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
+      <c r="C26" s="189"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="186"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36" t="s">
+      <c r="C27" s="190"/>
+      <c r="D27" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="6" t="s">
+      <c r="G27" s="186"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="191"/>
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="6" t="s">
+      <c r="G28" s="186"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="191"/>
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="6" t="s">
+      <c r="G29" s="186"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="191" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="6" t="s">
+      <c r="G30" s="186"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="191" t="s">
         <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1548,16 +2902,17 @@
       <c r="E31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="6" t="s">
+      <c r="G31" s="186"/>
+    </row>
+    <row r="32" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="191" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1566,16 +2921,17 @@
       <c r="E32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="6" t="s">
+      <c r="G32" s="186"/>
+    </row>
+    <row r="33" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="191" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1584,64 +2940,68 @@
       <c r="E33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="6" t="s">
+      <c r="G33" s="186"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="191" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="7" t="s">
+      <c r="G34" s="186"/>
+    </row>
+    <row r="35" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="191" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="7" t="s">
+      <c r="G35" s="186"/>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="191" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="6" t="s">
+      <c r="G36" s="186"/>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="191" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1653,13 +3013,14 @@
       <c r="F37" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="6" t="s">
+      <c r="G37" s="186"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="191" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1671,13 +3032,14 @@
       <c r="F38" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="9" t="s">
+      <c r="G38" s="186"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="192" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1687,33 +3049,35 @@
       <c r="F39" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
+      <c r="G39" s="186"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C40" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="186"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="192" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1723,11 +3087,1267 @@
       <c r="F41" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="G41" s="186"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="186"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="186"/>
+    </row>
+    <row r="43" spans="1:7" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="196" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="197" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="198" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="197" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="197" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="199" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="200" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="186"/>
+      <c r="G44" s="186"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="201"/>
+      <c r="D45" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="33"/>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="202"/>
+      <c r="D46" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="37"/>
+      <c r="G46" s="39"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
+      <c r="B47" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="202"/>
+      <c r="D47" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="37"/>
+      <c r="G47" s="39"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
+      <c r="B48" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="202"/>
+      <c r="D48" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="37"/>
+      <c r="G48" s="39"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="36"/>
+      <c r="B49" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="202" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="37"/>
+      <c r="G49" s="39"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="40"/>
+      <c r="B50" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="203"/>
+      <c r="D50" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="41"/>
+      <c r="G50" s="43"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="232" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="233"/>
+      <c r="D52" s="234" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="232" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="232"/>
+      <c r="G52" s="235"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="45"/>
+      <c r="B53" s="240" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="241"/>
+      <c r="D53" s="242" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="240" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="240"/>
+      <c r="G53" s="243"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="186"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="275"/>
+      <c r="D55" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="47"/>
+      <c r="G55" s="49"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="50"/>
+      <c r="B56" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="276"/>
+      <c r="D56" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="51"/>
+      <c r="G56" s="53"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="50"/>
+      <c r="B57" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="276"/>
+      <c r="D57" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="51"/>
+      <c r="G57" s="53"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="50"/>
+      <c r="B58" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="276"/>
+      <c r="D58" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="51"/>
+      <c r="G58" s="53"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="54"/>
+      <c r="B59" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="277"/>
+      <c r="D59" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="55"/>
+      <c r="G59" s="94"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="184"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="186"/>
+      <c r="G60" s="186"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="220"/>
+      <c r="D61" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="57"/>
+      <c r="G61" s="59"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="60"/>
+      <c r="B62" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="221"/>
+      <c r="D62" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="61"/>
+      <c r="G62" s="63"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="60"/>
+      <c r="B63" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="221"/>
+      <c r="D63" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="61"/>
+      <c r="G63" s="63"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="64"/>
+      <c r="B64" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="222"/>
+      <c r="D64" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="65"/>
+      <c r="G64" s="67"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="184"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="186"/>
+      <c r="G65" s="186"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="272"/>
+      <c r="D66" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="69"/>
+      <c r="G66" s="71"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="72"/>
+      <c r="B67" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="273"/>
+      <c r="D67" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="73"/>
+      <c r="G67" s="75"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="72"/>
+      <c r="B68" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="273"/>
+      <c r="D68" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="73"/>
+      <c r="G68" s="75"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="76"/>
+      <c r="B69" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="274"/>
+      <c r="D69" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="77"/>
+      <c r="G69" s="79"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="184"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="186"/>
+      <c r="G70" s="186"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="269"/>
+      <c r="D71" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="81"/>
+      <c r="G71" s="83"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="84"/>
+      <c r="B72" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="270" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="85"/>
+      <c r="G72" s="87"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="84"/>
+      <c r="B73" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" s="270" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="85"/>
+      <c r="G73" s="87"/>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="84"/>
+      <c r="B74" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="270" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="85"/>
+      <c r="G74" s="87"/>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="84"/>
+      <c r="B75" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="270" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="85"/>
+      <c r="G75" s="87"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="84"/>
+      <c r="B76" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="270" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="85"/>
+      <c r="G76" s="87"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="88"/>
+      <c r="B77" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="271" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="89"/>
+      <c r="G77" s="91"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="184"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="186"/>
+      <c r="G78" s="186"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="261" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="262"/>
+      <c r="D79" s="263" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" s="261" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="261"/>
+      <c r="G79" s="264"/>
+    </row>
+    <row r="80" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="93"/>
+      <c r="B80" s="265" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="266" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="267" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" s="265" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="265"/>
+      <c r="G80" s="268"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="31"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="184"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="186"/>
+      <c r="G81" s="186"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="253" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="254"/>
+      <c r="D82" s="255" t="s">
+        <v>147</v>
+      </c>
+      <c r="E82" s="253" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="253"/>
+      <c r="G82" s="256"/>
+    </row>
+    <row r="83" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="54"/>
+      <c r="B83" s="257" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="259" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="257" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="257"/>
+      <c r="G83" s="260"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="31"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="186"/>
+      <c r="G84" s="186"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="250"/>
+      <c r="D85" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="96"/>
+      <c r="G85" s="98"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="99"/>
+      <c r="B86" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" s="251"/>
+      <c r="D86" s="101" t="s">
+        <v>154</v>
+      </c>
+      <c r="E86" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="100"/>
+      <c r="G86" s="102"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="99"/>
+      <c r="B87" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="251" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="E87" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="100"/>
+      <c r="G87" s="102"/>
+    </row>
+    <row r="88" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="103"/>
+      <c r="B88" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="252" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E88" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="104"/>
+      <c r="G88" s="106"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="31"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="184"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="186"/>
+      <c r="G89" s="186"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="247"/>
+      <c r="D90" s="109" t="s">
+        <v>161</v>
+      </c>
+      <c r="E90" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90" s="108"/>
+      <c r="G90" s="110"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="111"/>
+      <c r="B91" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="248"/>
+      <c r="D91" s="113" t="s">
+        <v>163</v>
+      </c>
+      <c r="E91" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="112"/>
+      <c r="G91" s="114"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="115"/>
+      <c r="B92" s="116" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="249" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="E92" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="116"/>
+      <c r="G92" s="118"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="184"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="186"/>
+      <c r="G93" s="186"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" s="244"/>
+      <c r="D94" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="E94" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="F94" s="120"/>
+      <c r="G94" s="122"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="123"/>
+      <c r="B95" s="124" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="245"/>
+      <c r="D95" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="E95" s="124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="124"/>
+      <c r="G95" s="126"/>
+    </row>
+    <row r="96" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="127"/>
+      <c r="B96" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="C96" s="246" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96" s="129" t="s">
+        <v>172</v>
+      </c>
+      <c r="E96" s="128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="128"/>
+      <c r="G96" s="130"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="31"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="184"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="186"/>
+      <c r="G97" s="186"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="131" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" s="232" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" s="233"/>
+      <c r="D98" s="234" t="s">
+        <v>175</v>
+      </c>
+      <c r="E98" s="232" t="s">
+        <v>91</v>
+      </c>
+      <c r="F98" s="232"/>
+      <c r="G98" s="235"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="132"/>
+      <c r="B99" s="236" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99" s="237"/>
+      <c r="D99" s="238" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="236"/>
+      <c r="G99" s="239"/>
+    </row>
+    <row r="100" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="133"/>
+      <c r="B100" s="240" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="241" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" s="242" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" s="240" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="240"/>
+      <c r="G100" s="243"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="31"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="184"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="186"/>
+      <c r="G101" s="186"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" s="135" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" s="229"/>
+      <c r="D102" s="136" t="s">
+        <v>182</v>
+      </c>
+      <c r="E102" s="135" t="s">
+        <v>91</v>
+      </c>
+      <c r="F102" s="135"/>
+      <c r="G102" s="137"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="138"/>
+      <c r="B103" s="139" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="230"/>
+      <c r="D103" s="140" t="s">
+        <v>184</v>
+      </c>
+      <c r="E103" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="139"/>
+      <c r="G103" s="141"/>
+    </row>
+    <row r="104" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="142"/>
+      <c r="B104" s="204" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" s="231" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" s="143" t="s">
+        <v>186</v>
+      </c>
+      <c r="E104" s="204" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="204"/>
+      <c r="G104" s="144"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="31"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="184"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="186"/>
+      <c r="G105" s="186"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="145" t="s">
+        <v>187</v>
+      </c>
+      <c r="B106" s="146" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" s="226"/>
+      <c r="D106" s="147" t="s">
+        <v>189</v>
+      </c>
+      <c r="E106" s="146" t="s">
+        <v>91</v>
+      </c>
+      <c r="F106" s="146"/>
+      <c r="G106" s="148"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="149"/>
+      <c r="B107" s="150" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="227"/>
+      <c r="D107" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="E107" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="150"/>
+      <c r="G107" s="152"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="153"/>
+      <c r="B108" s="154" t="s">
+        <v>192</v>
+      </c>
+      <c r="C108" s="228" t="s">
+        <v>73</v>
+      </c>
+      <c r="D108" s="155" t="s">
+        <v>193</v>
+      </c>
+      <c r="E108" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="154"/>
+      <c r="G108" s="156"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="31"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="184"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="186"/>
+      <c r="G109" s="186"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="157" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" s="158" t="s">
+        <v>195</v>
+      </c>
+      <c r="C110" s="223"/>
+      <c r="D110" s="159" t="s">
+        <v>196</v>
+      </c>
+      <c r="E110" s="158" t="s">
+        <v>91</v>
+      </c>
+      <c r="F110" s="158"/>
+      <c r="G110" s="160"/>
+    </row>
+    <row r="111" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="161"/>
+      <c r="B111" s="162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C111" s="224" t="s">
+        <v>75</v>
+      </c>
+      <c r="D111" s="163" t="s">
+        <v>198</v>
+      </c>
+      <c r="E111" s="162" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="162"/>
+      <c r="G111" s="164"/>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="165"/>
+      <c r="B112" s="166" t="s">
+        <v>199</v>
+      </c>
+      <c r="C112" s="225"/>
+      <c r="D112" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="E112" s="166" t="s">
+        <v>91</v>
+      </c>
+      <c r="F112" s="166"/>
+      <c r="G112" s="168"/>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="31"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="184"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="186"/>
+      <c r="G113" s="186"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="169" t="s">
+        <v>201</v>
+      </c>
+      <c r="B114" s="208" t="s">
+        <v>202</v>
+      </c>
+      <c r="C114" s="209"/>
+      <c r="D114" s="210" t="s">
+        <v>203</v>
+      </c>
+      <c r="E114" s="208" t="s">
+        <v>91</v>
+      </c>
+      <c r="F114" s="208"/>
+      <c r="G114" s="211"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="170"/>
+      <c r="B115" s="212" t="s">
+        <v>204</v>
+      </c>
+      <c r="C115" s="213" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="214" t="s">
+        <v>205</v>
+      </c>
+      <c r="E115" s="212" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="212"/>
+      <c r="G115" s="215"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="171"/>
+      <c r="B116" s="216" t="s">
+        <v>206</v>
+      </c>
+      <c r="C116" s="217"/>
+      <c r="D116" s="218" t="s">
+        <v>207</v>
+      </c>
+      <c r="E116" s="216" t="s">
+        <v>91</v>
+      </c>
+      <c r="F116" s="216"/>
+      <c r="G116" s="219"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="31"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="184"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="186"/>
+      <c r="G117" s="186"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="172" t="s">
+        <v>208</v>
+      </c>
+      <c r="B118" s="173" t="s">
+        <v>209</v>
+      </c>
+      <c r="C118" s="205"/>
+      <c r="D118" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="E118" s="173" t="s">
+        <v>91</v>
+      </c>
+      <c r="F118" s="173"/>
+      <c r="G118" s="175"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="176"/>
+      <c r="B119" s="177" t="s">
+        <v>211</v>
+      </c>
+      <c r="C119" s="206"/>
+      <c r="D119" s="178" t="s">
+        <v>212</v>
+      </c>
+      <c r="E119" s="177" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="177"/>
+      <c r="G119" s="179"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="176"/>
+      <c r="B120" s="177" t="s">
+        <v>213</v>
+      </c>
+      <c r="C120" s="206"/>
+      <c r="D120" s="178" t="s">
+        <v>214</v>
+      </c>
+      <c r="E120" s="177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="177"/>
+      <c r="G120" s="179"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="176"/>
+      <c r="B121" s="177" t="s">
+        <v>215</v>
+      </c>
+      <c r="C121" s="206"/>
+      <c r="D121" s="178" t="s">
+        <v>216</v>
+      </c>
+      <c r="E121" s="177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="177"/>
+      <c r="G121" s="179"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="176"/>
+      <c r="B122" s="177" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="206" t="s">
+        <v>72</v>
+      </c>
+      <c r="D122" s="178" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="177"/>
+      <c r="G122" s="179"/>
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="176"/>
+      <c r="B123" s="177" t="s">
+        <v>217</v>
+      </c>
+      <c r="C123" s="206" t="s">
+        <v>46</v>
+      </c>
+      <c r="D123" s="178" t="s">
+        <v>218</v>
+      </c>
+      <c r="E123" s="177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="177"/>
+      <c r="G123" s="179"/>
+    </row>
+    <row r="124" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="176"/>
+      <c r="B124" s="177" t="s">
+        <v>219</v>
+      </c>
+      <c r="C124" s="206" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" s="178" t="s">
+        <v>220</v>
+      </c>
+      <c r="E124" s="177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="177"/>
+      <c r="G124" s="179"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="180"/>
+      <c r="B125" s="181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="207" t="s">
+        <v>49</v>
+      </c>
+      <c r="D125" s="182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="181" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="181"/>
+      <c r="G125" s="183"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="19">
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A118:A125"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A82:A83"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A55:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
